--- a/servizioTicketing/analisi/rischi/analisiDeiRischi.xlsx
+++ b/servizioTicketing/analisi/rischi/analisiDeiRischi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\5B\GESTIONE_PROGETTO\LIMONTA_INFORMATICA\Ticketing_Aziendale\Analisi_dei_rischi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b725c848cd784440/Desktop/progetto/servizioTicketing/analisi/rischi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECECBC-9E34-4A28-91E7-B2E990307C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F6ECECBC-9E34-4A28-91E7-B2E990307C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0185DB-3124-4F1C-9AD2-4FCF7331613E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAFE6A38-7176-4F31-A9E9-E81DD7629DBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FAFE6A38-7176-4F31-A9E9-E81DD7629DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -460,9 +460,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -571,7 +570,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -677,7 +676,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,154 +826,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB3F6A-6BA1-44AB-9A6E-A6A1B669B4E9}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>4</v>
       </c>
     </row>
